--- a/calendariotcc.xlsx
+++ b/calendariotcc.xlsx
@@ -23,12 +23,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Codificação</t>
+  </si>
+  <si>
+    <t>Página inicial</t>
+  </si>
+  <si>
+    <t>Tela de cadastro</t>
+  </si>
+  <si>
+    <t>Feed - Matéria escolhida</t>
+  </si>
+  <si>
+    <t>Comentários e Avaliações</t>
+  </si>
+  <si>
+    <t>Upload de conteúdo</t>
+  </si>
+  <si>
+    <t>Gerenciamento</t>
+  </si>
+  <si>
+    <t>Revisão</t>
+  </si>
+  <si>
+    <t>Legendas:</t>
+  </si>
+  <si>
+    <t>Vermelho: Não feito</t>
+  </si>
+  <si>
+    <t>Verde: Feito</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,8 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +411,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43352</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43358</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43359</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43365</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43366</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43372</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43373</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43379</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43380</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43386</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43387</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43393</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43394</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43400</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43401</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43407</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calendariotcc.xlsx
+++ b/calendariotcc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labcaxias\Documents\GitHub\requisitos-mandai\requisitos-mandai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labcaxias\Documents\GitHub\requisitos-mandai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,12 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,19 +463,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>43352</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>43358</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -586,6 +604,7 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/calendariotcc.xlsx
+++ b/calendariotcc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labcaxias\Documents\GitHub\requisitos-mandai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labcaxias\Documents\GitHub\requisitos-mandai\requisitos-mandai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,16 +483,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>43359</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>43365</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3">

--- a/calendariotcc.xlsx
+++ b/calendariotcc.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,19 +483,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>43359</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>43365</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">

--- a/calendariotcc.xlsx
+++ b/calendariotcc.xlsx
@@ -50,9 +50,6 @@
     <t>Feed - Matéria escolhida</t>
   </si>
   <si>
-    <t>Comentários e Avaliações</t>
-  </si>
-  <si>
     <t>Upload de conteúdo</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Verde: Feito</t>
+  </si>
+  <si>
+    <t>Comentários</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -499,20 +499,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>43366</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>43372</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
@@ -530,7 +530,7 @@
         <v>43379</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -547,7 +547,7 @@
         <v>43386</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -564,7 +564,7 @@
         <v>43393</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -581,7 +581,7 @@
         <v>43400</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -598,7 +598,7 @@
         <v>43407</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
